--- a/Dragonfall/gameData/shared/AllianceVillage.xlsx
+++ b/Dragonfall/gameData/shared/AllianceVillage.xlsx
@@ -141,8 +141,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="241">
+  <cellStyleXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -408,7 +422,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="241">
+  <cellStyles count="255">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -529,6 +543,13 @@
     <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -649,6 +670,13 @@
     <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -981,7 +1009,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1007,10 +1035,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>6900</v>
+        <v>1190</v>
       </c>
       <c r="C2" s="4">
-        <v>180000</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -1018,10 +1046,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>13800</v>
+        <v>3213</v>
       </c>
       <c r="C3" s="4">
-        <v>216000</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -1029,10 +1057,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>27600</v>
+        <v>7140</v>
       </c>
       <c r="C4" s="4">
-        <v>252000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -1040,10 +1068,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>55200</v>
+        <v>10710</v>
       </c>
       <c r="C5" s="4">
-        <v>288000</v>
+        <v>192000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -1051,10 +1079,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>110400</v>
+        <v>15708</v>
       </c>
       <c r="C6" s="4">
-        <v>324000</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1062,10 +1090,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>220900</v>
+        <v>26656</v>
       </c>
       <c r="C7" s="4">
-        <v>360000</v>
+        <v>324000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -1073,21 +1101,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="7">
-        <v>510900</v>
+        <v>44030</v>
       </c>
       <c r="C8" s="4">
-        <v>396000</v>
+        <v>408000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
-        <v>961600</v>
+      <c r="B9" s="2">
+        <v>72828</v>
       </c>
       <c r="C9" s="4">
-        <v>432000</v>
+        <v>504000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
@@ -1095,10 +1123,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>1903000</v>
+        <v>112455</v>
       </c>
       <c r="C10" s="4">
-        <v>468000</v>
+        <v>612000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
@@ -1106,47 +1134,124 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>3514000</v>
+        <v>171360</v>
       </c>
       <c r="C11" s="4">
-        <v>510000</v>
+        <v>732000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
-      <c r="C12" s="4"/>
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>249543</v>
+      </c>
+      <c r="C12" s="4">
+        <v>864000</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="15">
-      <c r="C13" s="4"/>
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>374850</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1008000</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="15">
-      <c r="C14" s="4"/>
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>539308</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1164000</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="15">
-      <c r="C15" s="4"/>
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>788256</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1332000</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15">
-      <c r="C16" s="4"/>
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1113840</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1512000</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="15">
-      <c r="C17" s="4"/>
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1599360</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1704000</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="15">
-      <c r="C18" s="4"/>
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2225895</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1920000</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="15">
-      <c r="C19" s="4"/>
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2817920</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2160000</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="15">
-      <c r="C20" s="4"/>
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>3236800</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2460000</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>4284000</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2820000</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="15">
       <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" ht="15">
@@ -1157,7 +1262,6 @@
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="5"/>
@@ -1227,7 +1331,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1253,10 +1357,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>6900</v>
+        <v>1190</v>
       </c>
       <c r="C2" s="4">
-        <v>180000</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -1264,10 +1368,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>13800</v>
+        <v>3213</v>
       </c>
       <c r="C3" s="4">
-        <v>216000</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -1275,10 +1379,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>27600</v>
+        <v>7140</v>
       </c>
       <c r="C4" s="4">
-        <v>252000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -1286,10 +1390,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>55200</v>
+        <v>10710</v>
       </c>
       <c r="C5" s="4">
-        <v>288000</v>
+        <v>192000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -1297,10 +1401,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>110400</v>
+        <v>15708</v>
       </c>
       <c r="C6" s="4">
-        <v>324000</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1308,10 +1412,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>220900</v>
+        <v>26656</v>
       </c>
       <c r="C7" s="4">
-        <v>360000</v>
+        <v>324000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -1319,10 +1423,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7">
-        <v>510900</v>
+        <v>44030</v>
       </c>
       <c r="C8" s="4">
-        <v>396000</v>
+        <v>408000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -1330,65 +1434,143 @@
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>961600</v>
+        <v>72828</v>
       </c>
       <c r="C9" s="4">
-        <v>432000</v>
+        <v>504000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>1903000</v>
+      <c r="B10" s="7">
+        <v>112455</v>
       </c>
       <c r="C10" s="4">
-        <v>468000</v>
+        <v>612000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>3514000</v>
+      <c r="B11" s="7">
+        <v>171360</v>
       </c>
       <c r="C11" s="4">
-        <v>510000</v>
+        <v>732000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
-      <c r="C12" s="4"/>
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>249543</v>
+      </c>
+      <c r="C12" s="4">
+        <v>864000</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="15">
-      <c r="C13" s="4"/>
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>374850</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1008000</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="15">
-      <c r="C14" s="4"/>
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>539308</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1164000</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="15">
-      <c r="C15" s="4"/>
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>788256</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1332000</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15">
-      <c r="C16" s="4"/>
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1113840</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1512000</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="15">
-      <c r="C17" s="4"/>
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1599360</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1704000</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="15">
-      <c r="C18" s="4"/>
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2225895</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1920000</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="15">
-      <c r="C19" s="4"/>
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2817920</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2160000</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="15">
-      <c r="C20" s="4"/>
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>3236800</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2460000</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4284000</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2820000</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="15">
       <c r="A22" s="5"/>
@@ -1473,7 +1655,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1499,10 +1681,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>6900</v>
+        <v>1190</v>
       </c>
       <c r="C2" s="4">
-        <v>180000</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -1510,10 +1692,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>13800</v>
+        <v>3213</v>
       </c>
       <c r="C3" s="4">
-        <v>216000</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -1521,10 +1703,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>27600</v>
+        <v>7140</v>
       </c>
       <c r="C4" s="4">
-        <v>252000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -1532,10 +1714,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>55200</v>
+        <v>10710</v>
       </c>
       <c r="C5" s="4">
-        <v>288000</v>
+        <v>192000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -1543,10 +1725,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>110400</v>
+        <v>15708</v>
       </c>
       <c r="C6" s="4">
-        <v>324000</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1554,10 +1736,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>220900</v>
+        <v>26656</v>
       </c>
       <c r="C7" s="4">
-        <v>360000</v>
+        <v>324000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -1565,10 +1747,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7">
-        <v>510900</v>
+        <v>44030</v>
       </c>
       <c r="C8" s="4">
-        <v>396000</v>
+        <v>408000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -1576,65 +1758,143 @@
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>961600</v>
+        <v>72828</v>
       </c>
       <c r="C9" s="4">
-        <v>432000</v>
+        <v>504000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>1903000</v>
+      <c r="B10" s="7">
+        <v>112455</v>
       </c>
       <c r="C10" s="4">
-        <v>468000</v>
+        <v>612000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>3514000</v>
+      <c r="B11" s="7">
+        <v>171360</v>
       </c>
       <c r="C11" s="4">
-        <v>510000</v>
+        <v>732000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
-      <c r="C12" s="4"/>
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>249543</v>
+      </c>
+      <c r="C12" s="4">
+        <v>864000</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="15">
-      <c r="C13" s="4"/>
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>374850</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1008000</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="15">
-      <c r="C14" s="4"/>
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>539308</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1164000</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="15">
-      <c r="C15" s="4"/>
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>788256</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1332000</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15">
-      <c r="C16" s="4"/>
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1113840</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1512000</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="15">
-      <c r="C17" s="4"/>
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1599360</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1704000</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="15">
-      <c r="C18" s="4"/>
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2225895</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1920000</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="15">
-      <c r="C19" s="4"/>
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2817920</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2160000</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="15">
-      <c r="C20" s="4"/>
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>3236800</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2460000</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4284000</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2820000</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="15">
       <c r="A22" s="5"/>
@@ -1719,7 +1979,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1745,10 +2005,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>6900</v>
-      </c>
-      <c r="C2" s="2">
-        <v>180000</v>
+        <v>1190</v>
+      </c>
+      <c r="C2" s="4">
+        <v>84000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -1756,10 +2016,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>13800</v>
-      </c>
-      <c r="C3" s="2">
-        <v>216000</v>
+        <v>3213</v>
+      </c>
+      <c r="C3" s="4">
+        <v>108000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -1767,10 +2027,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>27600</v>
-      </c>
-      <c r="C4" s="2">
-        <v>252000</v>
+        <v>7140</v>
+      </c>
+      <c r="C4" s="4">
+        <v>144000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -1778,10 +2038,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>55200</v>
-      </c>
-      <c r="C5" s="2">
-        <v>288000</v>
+        <v>10710</v>
+      </c>
+      <c r="C5" s="4">
+        <v>192000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -1789,10 +2049,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>110400</v>
-      </c>
-      <c r="C6" s="2">
-        <v>324000</v>
+        <v>15708</v>
+      </c>
+      <c r="C6" s="4">
+        <v>252000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1800,10 +2060,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>220900</v>
-      </c>
-      <c r="C7" s="2">
-        <v>360000</v>
+        <v>26656</v>
+      </c>
+      <c r="C7" s="4">
+        <v>324000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -1811,10 +2071,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7">
-        <v>510900</v>
-      </c>
-      <c r="C8" s="2">
-        <v>396000</v>
+        <v>44030</v>
+      </c>
+      <c r="C8" s="4">
+        <v>408000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -1822,63 +2082,143 @@
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>961600</v>
-      </c>
-      <c r="C9" s="2">
-        <v>432000</v>
+        <v>72828</v>
+      </c>
+      <c r="C9" s="4">
+        <v>504000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>1903000</v>
-      </c>
-      <c r="C10" s="2">
-        <v>468000</v>
+      <c r="B10" s="7">
+        <v>112455</v>
+      </c>
+      <c r="C10" s="4">
+        <v>612000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>3514000</v>
-      </c>
-      <c r="C11" s="2">
-        <v>510000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15"/>
+      <c r="B11" s="7">
+        <v>171360</v>
+      </c>
+      <c r="C11" s="4">
+        <v>732000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>249543</v>
+      </c>
+      <c r="C12" s="4">
+        <v>864000</v>
+      </c>
+    </row>
     <row r="13" spans="1:3" ht="15">
-      <c r="C13" s="4"/>
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>374850</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1008000</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="15">
-      <c r="C14" s="4"/>
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>539308</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1164000</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="15">
-      <c r="C15" s="4"/>
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>788256</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1332000</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15">
-      <c r="C16" s="4"/>
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1113840</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1512000</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="15">
-      <c r="C17" s="4"/>
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1599360</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1704000</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="15">
-      <c r="C18" s="4"/>
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2225895</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1920000</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="15">
-      <c r="C19" s="4"/>
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2817920</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2160000</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="15">
-      <c r="C20" s="4"/>
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>3236800</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2460000</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4284000</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2820000</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="15">
       <c r="A22" s="5"/>
@@ -1989,10 +2329,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>6900</v>
+        <v>1190</v>
       </c>
       <c r="C2" s="4">
-        <v>90000</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -2000,10 +2340,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>13800</v>
+        <v>3213</v>
       </c>
       <c r="C3" s="4">
-        <v>108000</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -2011,10 +2351,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>27600</v>
+        <v>7140</v>
       </c>
       <c r="C4" s="4">
-        <v>126000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -2022,10 +2362,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>55200</v>
+        <v>10710</v>
       </c>
       <c r="C5" s="4">
-        <v>144000</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -2033,10 +2373,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>110400</v>
+        <v>15708</v>
       </c>
       <c r="C6" s="4">
-        <v>162000</v>
+        <v>126000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -2044,10 +2384,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>220900</v>
+        <v>26656</v>
       </c>
       <c r="C7" s="4">
-        <v>180000</v>
+        <v>162000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -2055,10 +2395,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7">
-        <v>510900</v>
+        <v>44030</v>
       </c>
       <c r="C8" s="4">
-        <v>198000</v>
+        <v>204000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -2066,46 +2406,144 @@
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>961600</v>
+        <v>72828</v>
       </c>
       <c r="C9" s="4">
-        <v>216000</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>1903000</v>
+      <c r="B10" s="7">
+        <v>112455</v>
       </c>
       <c r="C10" s="4">
-        <v>234000</v>
+        <v>306000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>3514000</v>
+      <c r="B11" s="7">
+        <v>171360</v>
       </c>
       <c r="C11" s="4">
-        <v>255000</v>
+        <v>366000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" ht="15"/>
-    <row r="14" spans="1:3" ht="15"/>
-    <row r="15" spans="1:3" ht="15"/>
-    <row r="16" spans="1:3" ht="15"/>
-    <row r="17" spans="1:3" ht="15"/>
-    <row r="18" spans="1:3" ht="15"/>
-    <row r="19" spans="1:3" ht="15"/>
-    <row r="20" spans="1:3" ht="15"/>
-    <row r="21" spans="1:3" ht="15"/>
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>249543</v>
+      </c>
+      <c r="C12" s="2">
+        <v>432000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>374850</v>
+      </c>
+      <c r="C13" s="2">
+        <v>504000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>539308</v>
+      </c>
+      <c r="C14" s="2">
+        <v>582000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>788256</v>
+      </c>
+      <c r="C15" s="2">
+        <v>666000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1113840</v>
+      </c>
+      <c r="C16" s="2">
+        <v>756000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1599360</v>
+      </c>
+      <c r="C17" s="2">
+        <v>852000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2225895</v>
+      </c>
+      <c r="C18" s="2">
+        <v>960000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2817920</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>3236800</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1230000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4284000</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1410000</v>
+      </c>
+    </row>
     <row r="22" spans="1:3" ht="15"/>
     <row r="23" spans="1:3" ht="15"/>
     <row r="27" spans="1:3" ht="20" customHeight="1">
